--- a/data/processed/state_overviews/oregon_overview.xlsx
+++ b/data/processed/state_overviews/oregon_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>1961</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1,961</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Baker County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>11</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Benton County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>63</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Clackamas County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>114</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Clatsop County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>39</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Columbia County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>18</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Coos County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>25</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Crook County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>14</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Curry County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>11</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Deschutes County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>99</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Douglas County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>33</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Gilliam County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>2</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Grant County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>6</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Harney County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>6</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Hood River County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>15</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>Jackson County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>107</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,8 +946,10 @@
           <t>Jefferson County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>3</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -944,8 +978,10 @@
           <t>Josephine County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>30</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -974,8 +1010,10 @@
           <t>Klamath County</t>
         </is>
       </c>
-      <c r="B19">
-        <v>34</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1004,8 +1042,10 @@
           <t>Lake County</t>
         </is>
       </c>
-      <c r="B20">
-        <v>9</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1034,8 +1074,10 @@
           <t>Lane County</t>
         </is>
       </c>
-      <c r="B21">
-        <v>183</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1064,8 +1106,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B22">
-        <v>25</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1094,8 +1138,10 @@
           <t>Linn County</t>
         </is>
       </c>
-      <c r="B23">
-        <v>37</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1124,8 +1170,10 @@
           <t>Malheur County</t>
         </is>
       </c>
-      <c r="B24">
-        <v>15</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1154,8 +1202,10 @@
           <t>Marion County</t>
         </is>
       </c>
-      <c r="B25">
-        <v>108</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1184,8 +1234,10 @@
           <t>Morrow County</t>
         </is>
       </c>
-      <c r="B26">
-        <v>6</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1214,8 +1266,10 @@
           <t>Multnomah County</t>
         </is>
       </c>
-      <c r="B27">
-        <v>636</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>636</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1244,8 +1298,10 @@
           <t>Polk County</t>
         </is>
       </c>
-      <c r="B28">
-        <v>22</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1274,8 +1330,10 @@
           <t>Sherman County</t>
         </is>
       </c>
-      <c r="B29">
-        <v>1</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1304,8 +1362,10 @@
           <t>Tillamook County</t>
         </is>
       </c>
-      <c r="B30">
-        <v>19</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1334,8 +1394,10 @@
           <t>Umatilla County</t>
         </is>
       </c>
-      <c r="B31">
-        <v>28</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1364,8 +1426,10 @@
           <t>Union County</t>
         </is>
       </c>
-      <c r="B32">
-        <v>14</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1394,8 +1458,10 @@
           <t>Wallowa County</t>
         </is>
       </c>
-      <c r="B33">
-        <v>9</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1424,8 +1490,10 @@
           <t>Wasco County</t>
         </is>
       </c>
-      <c r="B34">
-        <v>18</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1454,8 +1522,10 @@
           <t>Washington County</t>
         </is>
       </c>
-      <c r="B35">
-        <v>169</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1484,8 +1554,10 @@
           <t>Wheeler County</t>
         </is>
       </c>
-      <c r="B36">
-        <v>1</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1514,8 +1586,10 @@
           <t>Yamhill County</t>
         </is>
       </c>
-      <c r="B37">
-        <v>31</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1535,6 +1609,38 @@
       <c r="F37" t="inlineStr">
         <is>
           <t>45.16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1,961</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$3,508,813,229</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.60%</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>-13.87%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>67.31%</t>
         </is>
       </c>
     </row>
@@ -1589,8 +1695,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>510</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1619,8 +1727,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>318</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1649,8 +1759,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>328</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1679,8 +1791,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>340</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1709,8 +1823,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>256</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1739,8 +1855,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B7">
-        <v>209</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1769,8 +1887,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1961</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,961</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1844,8 +1964,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>631</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>631</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1874,8 +1996,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>561</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1904,8 +2028,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>368</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1934,8 +2060,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>140</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1964,8 +2092,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>188</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1994,8 +2124,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>73</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2024,8 +2156,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>1961</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1,961</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2099,8 +2233,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>177</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2129,8 +2265,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>232</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2159,8 +2297,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>172</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2189,8 +2329,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>153</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2219,8 +2361,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>11</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2249,8 +2393,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>622</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2279,8 +2425,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>17</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -2309,8 +2457,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>147</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -2339,8 +2489,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B10">
-        <v>41</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -2369,8 +2521,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B11">
-        <v>376</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -2399,8 +2553,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B12">
-        <v>13</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -2429,8 +2585,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B13">
-        <v>1961</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1,961</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/oregon_overview.xlsx
+++ b/data/processed/state_overviews/oregon_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,1216 +431,1248 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Baker County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$8,370,965</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.89%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-20.20%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Benton County</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>1,961</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$53,502,044</t>
+          <t>$3,508,813,229</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.51%</t>
+          <t>11.60%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-7.61%</t>
+          <t>-13.87%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>65.08%</t>
+          <t>67.31%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clackamas County</t>
+          <t>Baker County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$173,394,790</t>
+          <t>$8,370,965</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.09%</t>
+          <t>15.89%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-8.80%</t>
+          <t>-20.20%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.28%</t>
+          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Clatsop County</t>
+          <t>Benton County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>63</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$23,250,093</t>
+          <t>$53,502,044</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.07%</t>
+          <t>11.51%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-1.21%</t>
+          <t>-7.61%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>65.08%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Columbia County</t>
+          <t>Clackamas County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$44,485,048</t>
+          <t>$173,394,790</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.95%</t>
+          <t>11.09%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-70.49%</t>
+          <t>-8.80%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>94.44%</t>
+          <t>62.28%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Coos County</t>
+          <t>Clatsop County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$52,422,238</t>
+          <t>$23,250,093</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.80%</t>
+          <t>24.07%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-18.72%</t>
+          <t>-1.21%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>68.00%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Crook County</t>
+          <t>Columbia County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$28,687,031</t>
+          <t>$44,485,048</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8.18%</t>
+          <t>4.95%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-4.45%</t>
+          <t>-70.49%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>57.14%</t>
+          <t>94.44%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Curry County</t>
+          <t>Coos County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$5,410,093</t>
+          <t>$52,422,238</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.95%</t>
+          <t>11.80%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-53.98%</t>
+          <t>-18.72%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>81.82%</t>
+          <t>68.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Deschutes County</t>
+          <t>Crook County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$131,182,305</t>
+          <t>$28,687,031</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>17.61%</t>
+          <t>8.18%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-1.02%</t>
+          <t>-4.45%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>51.52%</t>
+          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Douglas County</t>
+          <t>Curry County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$59,017,036</t>
+          <t>$5,410,093</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.43%</t>
+          <t>13.95%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-18.45%</t>
+          <t>-53.98%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>81.82%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Gilliam County</t>
+          <t>Deschutes County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$315,755</t>
+          <t>$131,182,305</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-132.37%</t>
+          <t>17.61%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-194.39%</t>
+          <t>-1.02%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>51.52%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Grant County</t>
+          <t>Douglas County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$10,703,393</t>
+          <t>$59,017,036</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-1.82%</t>
+          <t>9.43%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-83.16%</t>
+          <t>-18.45%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Harney County</t>
+          <t>Gilliam County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$4,372,807</t>
+          <t>$315,755</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15.61%</t>
+          <t>-132.37%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-60.62%</t>
+          <t>-194.39%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hood River County</t>
+          <t>Grant County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$28,280,811</t>
+          <t>$10,703,393</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11.70%</t>
+          <t>-1.82%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-12.54%</t>
+          <t>-83.16%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jackson County</t>
+          <t>Harney County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$152,474,157</t>
+          <t>$4,372,807</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7.32%</t>
+          <t>15.61%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-42.12%</t>
+          <t>-60.62%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>77.57%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Jefferson County</t>
+          <t>Hood River County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$326,500</t>
+          <t>$28,280,811</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15.10%</t>
+          <t>11.70%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.52%</t>
+          <t>-12.54%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Josephine County</t>
+          <t>Jackson County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$17,995,114</t>
+          <t>$152,474,157</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8.67%</t>
+          <t>7.32%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-5.49%</t>
+          <t>-42.12%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>77.57%</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Klamath County</t>
+          <t>Jefferson County</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>$56,154,312</t>
+          <t>$326,500</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19.25%</t>
+          <t>15.10%</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-20.34%</t>
+          <t>5.52%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>73.53%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lake County</t>
+          <t>Josephine County</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>$2,649,730</t>
+          <t>$17,995,114</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.89%</t>
+          <t>8.67%</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-53.13%</t>
+          <t>-5.49%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lane County</t>
+          <t>Klamath County</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>$222,954,348</t>
+          <t>$56,154,312</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13.36%</t>
+          <t>19.25%</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-14.48%</t>
+          <t>-20.34%</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>68.85%</t>
+          <t>73.53%</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Lake County</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>$20,749,964</t>
+          <t>$2,649,730</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>20.48%</t>
+          <t>4.89%</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-33.66%</t>
+          <t>-53.13%</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>84.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Linn County</t>
+          <t>Lane County</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>183</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>$70,319,392</t>
+          <t>$222,954,348</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>13.59%</t>
+          <t>13.36%</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-13.48%</t>
+          <t>-14.48%</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>70.27%</t>
+          <t>68.85%</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Malheur County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>$16,028,756</t>
+          <t>$20,749,964</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>11.78%</t>
+          <t>20.48%</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-34.47%</t>
+          <t>-33.66%</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>60.00%</t>
+          <t>84.00%</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Marion County</t>
+          <t>Linn County</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>37</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>$207,408,739</t>
+          <t>$70,319,392</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>12.32%</t>
+          <t>13.59%</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-11.18%</t>
+          <t>-13.48%</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>69.44%</t>
+          <t>70.27%</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Morrow County</t>
+          <t>Malheur County</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>$4,286,253</t>
+          <t>$16,028,756</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-4.04%</t>
+          <t>11.78%</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-43.24%</t>
+          <t>-34.47%</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>60.00%</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Multnomah County</t>
+          <t>Marion County</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$1,685,249,391</t>
+          <t>$207,408,739</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>11.55%</t>
+          <t>12.32%</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-15.62%</t>
+          <t>-11.18%</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>70.44%</t>
+          <t>69.44%</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Polk County</t>
+          <t>Morrow County</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>$15,188,742</t>
+          <t>$4,286,253</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9.34%</t>
+          <t>-4.04%</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-3.72%</t>
+          <t>-43.24%</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>59.09%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sherman County</t>
+          <t>Multnomah County</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>636</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>$6,200</t>
+          <t>$1,685,249,391</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-39.52%</t>
+          <t>11.55%</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-52.67%</t>
+          <t>-15.62%</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>70.44%</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tillamook County</t>
+          <t>Polk County</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>$8,642,889</t>
+          <t>$15,188,742</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5.91%</t>
+          <t>9.34%</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-18.03%</t>
+          <t>-3.72%</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>68.42%</t>
+          <t>59.09%</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Umatilla County</t>
+          <t>Sherman County</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>$48,599,494</t>
+          <t>$6,200</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>13.75%</t>
+          <t>-39.52%</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-4.45%</t>
+          <t>-52.67%</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>53.57%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Union County</t>
+          <t>Tillamook County</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>$28,047,222</t>
+          <t>$8,642,889</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>8.74%</t>
+          <t>5.91%</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-28.67%</t>
+          <t>-18.03%</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>68.42%</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Wallowa County</t>
+          <t>Umatilla County</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>$11,722,771</t>
+          <t>$48,599,494</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>19.09%</t>
+          <t>13.75%</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-24.27%</t>
+          <t>-4.45%</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>53.57%</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Wasco County</t>
+          <t>Union County</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>$19,047,794</t>
+          <t>$28,047,222</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9.60%</t>
+          <t>8.74%</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-35.26%</t>
+          <t>-28.67%</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Washington County</t>
+          <t>Wallowa County</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$259,765,728</t>
+          <t>$11,722,771</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9.49%</t>
+          <t>19.09%</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-7.08%</t>
+          <t>-24.27%</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>60.95%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Wheeler County</t>
+          <t>Wasco County</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>$1,488,103</t>
+          <t>$19,047,794</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10.84%</t>
+          <t>9.60%</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-50.49%</t>
+          <t>-35.26%</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Yamhill County</t>
+          <t>Washington County</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>$36,313,221</t>
+          <t>$259,765,728</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>12.24%</t>
+          <t>9.49%</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>-7.08%</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>45.16%</t>
+          <t>60.95%</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Wheeler County</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1,961</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>$3,508,813,229</t>
+          <t>$1,488,103</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>11.60%</t>
+          <t>10.84%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-13.87%</t>
+          <t>-50.49%</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>67.31%</t>
+          <t>100.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Yamhill County</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$36,313,221</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>12.24%</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>45.16%</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1683,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1660,256 +1692,288 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>510</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$1,421,267,315</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10.03%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-12.93%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>67.06%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>1,961</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$420,335,123</t>
+          <t>$3,508,813,229</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.35%</t>
+          <t>11.60%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-29.73%</t>
+          <t>-13.87%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.75%</t>
+          <t>67.31%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>510</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$567,378,521</t>
+          <t>$1,421,267,315</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.54%</t>
+          <t>10.03%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-19.99%</t>
+          <t>-12.93%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>72.87%</t>
+          <t>67.06%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>318</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$414,055,723</t>
+          <t>$420,335,123</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.75%</t>
+          <t>9.35%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-14.61%</t>
+          <t>-29.73%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69.41%</t>
+          <t>70.75%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>328</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$298,545,261</t>
+          <t>$567,378,521</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.60%</t>
+          <t>12.54%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.93%</t>
+          <t>-19.99%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>58.98%</t>
+          <t>72.87%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>340</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$387,231,286</t>
+          <t>$414,055,723</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.74%</t>
+          <t>12.75%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-4.10%</t>
+          <t>-14.61%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>60.77%</t>
+          <t>69.41%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1,961</t>
+          <t>256</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$3,508,813,229</t>
+          <t>$298,545,261</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.60%</t>
+          <t>13.60%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-13.87%</t>
+          <t>-6.93%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>67.31%</t>
+          <t>58.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6th Congressional district</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$387,231,286</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.74%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-4.10%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>60.77%</t>
         </is>
       </c>
     </row>
@@ -1934,34 +1998,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1993,128 +2057,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$609,662,163</t>
+          <t>$2,235,658,737</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.39%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-14.97%</t>
+          <t>-11.83%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>67.56%</t>
+          <t>70.74%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>561</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$104,181,574</t>
+          <t>$609,662,163</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.69%</t>
+          <t>12.39%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-10.34%</t>
+          <t>-14.97%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>64.95%</t>
+          <t>67.56%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>368</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$472,444,044</t>
+          <t>$104,181,574</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.57%</t>
+          <t>12.69%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-18.40%</t>
+          <t>-10.34%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>64.95%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$2,235,658,737</t>
+          <t>$472,444,044</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>7.57%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-11.83%</t>
+          <t>-18.40%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70.74%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2267,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2262,7 +2326,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -2294,7 +2358,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2326,7 +2390,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -2390,7 +2454,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -2422,7 +2486,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2454,7 +2518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2486,7 +2550,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2518,64 +2582,64 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$908,773,934</t>
+          <t>$53,857,728</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10.11%</t>
+          <t>3.16%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-14.16%</t>
+          <t>-2.06%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70.48%</t>
+          <t>53.85%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>376</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$53,857,728</t>
+          <t>$908,773,934</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.16%</t>
+          <t>10.11%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-2.06%</t>
+          <t>-14.16%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>70.48%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/oregon_overview.xlsx
+++ b/data/processed/state_overviews/oregon_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>67.31%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>1,961</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$3,508,813,229</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>11.60%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-13.87%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>67.31%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>67.31%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,961</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,508,813,229</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>11.60%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-13.87%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>67.31%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$8,370,965</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>15.89%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-20.20%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>65.08%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>63</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$53,502,044</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>11.51%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-7.61%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>65.08%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>62.28%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>114</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$173,394,790</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>11.09%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-8.80%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>62.28%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>53.85%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>39</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$23,250,093</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>24.07%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-1.21%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>53.85%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>94.44%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$44,485,048</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.95%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-70.49%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>94.44%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>68.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$52,422,238</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>11.80%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-18.72%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>68.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$28,687,031</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>8.18%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-4.45%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>81.82%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$5,410,093</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>13.95%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-53.98%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>81.82%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>51.52%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>99</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$131,182,305</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>17.61%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-1.02%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>51.52%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>33</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$59,017,036</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>9.43%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-18.45%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$315,755</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>-132.37%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-194.39%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$10,703,393</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>-1.82%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-83.16%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$4,372,807</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>15.61%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-60.62%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$28,280,811</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>11.70%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-12.54%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>77.57%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>107</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$152,474,157</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>7.32%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-42.12%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>77.57%</t>
         </is>
       </c>
     </row>
@@ -1012,27 +1012,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>$326,500</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>15.10%</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>5.52%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -1044,27 +1044,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>$17,995,114</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>8.67%</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>-5.49%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1076,27 +1076,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>73.53%</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>$56,154,312</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>19.25%</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>-20.34%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>73.53%</t>
         </is>
       </c>
     </row>
@@ -1108,27 +1108,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>$2,649,730</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>4.89%</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>-53.13%</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1140,27 +1140,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>68.85%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>183</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>$222,954,348</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>13.36%</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>-14.48%</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>68.85%</t>
         </is>
       </c>
     </row>
@@ -1172,27 +1172,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>84.00%</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>$20,749,964</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>20.48%</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>-33.66%</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>84.00%</t>
         </is>
       </c>
     </row>
@@ -1204,27 +1204,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>70.27%</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>37</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>$70,319,392</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>13.59%</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>-13.48%</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>70.27%</t>
         </is>
       </c>
     </row>
@@ -1236,27 +1236,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>60.00%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>$16,028,756</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>11.78%</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>-34.47%</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>60.00%</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>69.44%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>108</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>$207,408,739</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>12.32%</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>-11.18%</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>69.44%</t>
         </is>
       </c>
     </row>
@@ -1300,27 +1300,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>$4,286,253</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>-4.04%</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>-43.24%</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1332,27 +1332,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>70.44%</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>636</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>$1,685,249,391</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>11.55%</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>-15.62%</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>70.44%</t>
         </is>
       </c>
     </row>
@@ -1364,27 +1364,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>59.09%</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>$15,188,742</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>9.34%</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>-3.72%</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>59.09%</t>
         </is>
       </c>
     </row>
@@ -1396,27 +1396,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>$6,200</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>-39.52%</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>-52.67%</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1428,27 +1428,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>68.42%</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>$8,642,889</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>5.91%</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>-18.03%</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>68.42%</t>
         </is>
       </c>
     </row>
@@ -1460,27 +1460,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>53.57%</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>28</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>$48,599,494</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>13.75%</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>-4.45%</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>53.57%</t>
         </is>
       </c>
     </row>
@@ -1492,27 +1492,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>$28,047,222</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>8.74%</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>-28.67%</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -1524,27 +1524,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>9</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>$11,722,771</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>19.09%</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>-24.27%</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>$19,047,794</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>9.60%</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>-35.26%</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1588,27 +1588,27 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>60.95%</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>169</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>$259,765,728</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>9.49%</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>-7.08%</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>60.95%</t>
         </is>
       </c>
     </row>
@@ -1620,27 +1620,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>$1,488,103</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>10.84%</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>-50.49%</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -1652,27 +1652,27 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>45.16%</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>$36,313,221</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>12.24%</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>0.31%</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>45.16%</t>
         </is>
       </c>
     </row>
@@ -1697,27 +1697,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1729,27 +1729,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1761,219 +1761,219 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>67.31%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>1,961</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$3,508,813,229</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>11.60%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-13.87%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>67.31%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>67.06%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>510</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$1,421,267,315</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>10.03%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-12.93%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>67.06%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>70.75%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>318</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$420,335,123</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>9.35%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-29.73%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>70.75%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>72.87%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>328</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$567,378,521</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>12.54%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-19.99%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>72.87%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>69.41%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>340</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$414,055,723</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>12.75%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-14.61%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>69.41%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>58.98%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>256</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$298,545,261</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>13.60%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-6.93%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>58.98%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>60.77%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>209</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$387,231,286</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>11.74%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-4.10%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>60.77%</t>
         </is>
       </c>
     </row>
@@ -1998,187 +1998,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>68.15%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>631</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$81,780,819</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>13.61%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-15.32%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>68.15%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>67.56%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$2,235,658,737</t>
+          <t>561</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.56%</t>
+          <t>$609,662,163</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-11.83%</t>
+          <t>12.39%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>70.74%</t>
+          <t>-14.97%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>64.95%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$609,662,163</t>
+          <t>368</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.39%</t>
+          <t>$104,181,574</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-14.97%</t>
+          <t>12.69%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>67.56%</t>
+          <t>-10.34%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>71.43%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$104,181,574</t>
+          <t>140</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.69%</t>
+          <t>$472,444,044</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-10.34%</t>
+          <t>7.57%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>64.95%</t>
+          <t>-18.40%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>70.74%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$472,444,044</t>
+          <t>188</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.57%</t>
+          <t>$2,235,658,737</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-18.40%</t>
+          <t>6.56%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>-11.83%</t>
         </is>
       </c>
     </row>
@@ -2190,27 +2190,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>53.42%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>73</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$5,085,892</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>35.97%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-4.27%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>53.42%</t>
         </is>
       </c>
     </row>
@@ -2222,27 +2222,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>67.31%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>1,961</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$3,508,813,229</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>11.60%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-13.87%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>67.31%</t>
         </is>
       </c>
     </row>
@@ -2267,155 +2267,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.23%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>177</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$91,153,867</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>17.17%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-10.99%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.23%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>68.97%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>232</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$357,743,709</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>9.67%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-22.56%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>68.97%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>58.14%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>172</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$303,104,936</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>13.99%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-8.36%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>58.14%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>61.44%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>153</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$276,460,147</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>12.72%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-8.97%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>61.44%</t>
         </is>
       </c>
     </row>
@@ -2427,219 +2427,219 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>36.36%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>11</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$34,963,117</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>12.22%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.63%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>36.36%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>70.42%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>622</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$897,770,276</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>11.10%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-18.27%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>70.42%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>88.24%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$301,523,375</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1.44%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-18.00%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>88.24%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>68.03%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>147</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$276,742,187</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>14.90%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-17.44%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>68.03%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>43.90%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$6,719,953</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>20.31%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.52%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>43.90%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>70.48%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$53,857,728</t>
+          <t>376</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.16%</t>
+          <t>$908,773,934</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-2.06%</t>
+          <t>10.11%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>53.85%</t>
+          <t>-14.16%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>53.85%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$908,773,934</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10.11%</t>
+          <t>$53,857,728</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-14.16%</t>
+          <t>3.16%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>70.48%</t>
+          <t>-2.06%</t>
         </is>
       </c>
     </row>
@@ -2651,27 +2651,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>67.31%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>1,961</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$3,508,813,229</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>11.60%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-13.87%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>67.31%</t>
         </is>
       </c>
     </row>
